--- a/-PCB-/REMOTE/bom/Remote_BOM.xlsx
+++ b/-PCB-/REMOTE/bom/Remote_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\Remote\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\Sumec-Remote\-PCB-\REMOTE\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4B231E65-7350-4EDF-B94B-028E3D9E53A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFF918B-2636-43C0-8DDE-CE8C75D7BB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{ADB08104-A899-476E-9563-6F3362DB1FE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{ADB08104-A899-476E-9563-6F3362DB1FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Remote" sheetId="1" r:id="rId1"/>
@@ -1163,21 +1163,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55734B9F-F6FB-4617-855F-56F0C3AAA048}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="40.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
+    <col min="6" max="6" width="50.453125" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -1213,7 +1213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>17</v>
@@ -1231,7 +1231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -1247,7 +1247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -1263,7 +1263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1311,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>24</v>
@@ -1327,7 +1327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>8</v>
@@ -1345,7 +1345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -1364,7 +1364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>45</v>
@@ -1383,7 +1383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
         <v>20</v>
@@ -1402,7 +1402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>55</v>
@@ -1418,7 +1418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>15</v>
@@ -1434,7 +1434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>26</v>
@@ -1450,7 +1450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
@@ -1465,7 +1465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>6</v>
@@ -1481,34 +1481,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
     </row>
   </sheetData>
